--- a/Master Thesis/Analys/Statistics-IO-Parse.xlsx
+++ b/Master Thesis/Analys/Statistics-IO-Parse.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -831,7 +831,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -988,15 +988,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1008,6 +999,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1314,17 +1314,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A271" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A271" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B296" sqref="B296:B300"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="23.75" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="27.75" customWidth="1"/>
     <col min="3" max="10" width="23.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15">
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15">
       <c r="A2" s="4" t="s">
         <v>236</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15">
       <c r="A3" s="4" t="s">
         <v>236</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15">
       <c r="A4" s="4" t="s">
         <v>236</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15">
       <c r="A5" s="4" t="s">
         <v>236</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15">
       <c r="A6" s="4" t="s">
         <v>236</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15">
       <c r="A7" s="4" t="s">
         <v>236</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15">
       <c r="A8" s="4" t="s">
         <v>236</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15">
       <c r="A9" s="4" t="s">
         <v>236</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15">
       <c r="A10" s="4" t="s">
         <v>236</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15">
       <c r="A11" s="4" t="s">
         <v>236</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15">
       <c r="A12" s="4" t="s">
         <v>236</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15">
       <c r="A13" s="4" t="s">
         <v>236</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15">
       <c r="A14" s="4" t="s">
         <v>236</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15">
       <c r="A15" s="4" t="s">
         <v>236</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15">
       <c r="A16" s="4" t="s">
         <v>236</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="15">
       <c r="A17" s="4" t="s">
         <v>237</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15">
       <c r="A18" s="4" t="s">
         <v>237</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15">
       <c r="A19" s="4" t="s">
         <v>237</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="15">
       <c r="A20" s="4" t="s">
         <v>237</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="15">
       <c r="A21" s="4" t="s">
         <v>237</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="15">
       <c r="A22" s="4" t="s">
         <v>237</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="15">
       <c r="A23" s="4" t="s">
         <v>237</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="15">
       <c r="A24" s="4" t="s">
         <v>237</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="15">
       <c r="A25" s="4" t="s">
         <v>237</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="15">
       <c r="A26" s="4" t="s">
         <v>237</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="15">
       <c r="A27" s="4" t="s">
         <v>237</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="15">
       <c r="A28" s="4" t="s">
         <v>237</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="15">
       <c r="A29" s="4" t="s">
         <v>237</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="15">
       <c r="A30" s="4" t="s">
         <v>237</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="15">
       <c r="A31" s="4" t="s">
         <v>238</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="15">
       <c r="A32" s="4" t="s">
         <v>238</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="15">
       <c r="A33" s="4" t="s">
         <v>238</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="15">
       <c r="A34" s="4" t="s">
         <v>238</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="15">
       <c r="A35" s="4" t="s">
         <v>238</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="15">
       <c r="A36" s="4" t="s">
         <v>238</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="15">
       <c r="A37" s="4" t="s">
         <v>238</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="15">
       <c r="A38" s="4" t="s">
         <v>238</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="15">
       <c r="A39" s="4" t="s">
         <v>238</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="15">
       <c r="A40" s="4" t="s">
         <v>239</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="15">
       <c r="A41" s="4" t="s">
         <v>239</v>
       </c>
@@ -2953,7 +2953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="15">
       <c r="A42" s="4" t="s">
         <v>239</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="15">
       <c r="A43" s="4" t="s">
         <v>239</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="15">
       <c r="A44" s="4" t="s">
         <v>239</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="15">
       <c r="A45" s="4" t="s">
         <v>239</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="15">
       <c r="A46" s="4" t="s">
         <v>239</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="15">
       <c r="A47" s="4" t="s">
         <v>239</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="15">
       <c r="A48" s="4" t="s">
         <v>239</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="15">
       <c r="A49" s="4" t="s">
         <v>240</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="15">
       <c r="A50" s="4" t="s">
         <v>240</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="15">
       <c r="A51" s="4" t="s">
         <v>240</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="15">
       <c r="A52" s="4" t="s">
         <v>240</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="15">
       <c r="A53" s="4" t="s">
         <v>240</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="15">
       <c r="A54" s="4" t="s">
         <v>240</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="15">
       <c r="A55" s="4" t="s">
         <v>240</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="15">
       <c r="A56" s="4" t="s">
         <v>240</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="15">
       <c r="A57" s="4" t="s">
         <v>240</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="15">
       <c r="A58" s="4" t="s">
         <v>241</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="15">
       <c r="A59" s="4" t="s">
         <v>241</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="15">
       <c r="A60" s="4" t="s">
         <v>241</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="15">
       <c r="A61" s="4" t="s">
         <v>241</v>
       </c>
@@ -3753,7 +3753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="15">
       <c r="A62" s="4" t="s">
         <v>241</v>
       </c>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="15">
       <c r="A63" s="4" t="s">
         <v>241</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" ht="15">
       <c r="A64" s="4" t="s">
         <v>241</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="15">
       <c r="A65" s="4" t="s">
         <v>241</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="15">
       <c r="A66" s="4" t="s">
         <v>241</v>
       </c>
@@ -3953,7 +3953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="15">
       <c r="A67" s="4" t="s">
         <v>242</v>
       </c>
@@ -3993,7 +3993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="15">
       <c r="A68" s="4" t="s">
         <v>242</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" ht="15">
       <c r="A69" s="4" t="s">
         <v>242</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" ht="15">
       <c r="A70" s="4" t="s">
         <v>242</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="15">
       <c r="A71" s="4" t="s">
         <v>242</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="15">
       <c r="A72" s="4" t="s">
         <v>242</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="15">
       <c r="A73" s="4" t="s">
         <v>242</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="15">
       <c r="A74" s="4" t="s">
         <v>242</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="15">
       <c r="A75" s="4" t="s">
         <v>242</v>
       </c>
@@ -4313,7 +4313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="15">
       <c r="A76" s="4" t="s">
         <v>243</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" ht="15">
       <c r="A77" s="4" t="s">
         <v>243</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="15">
       <c r="A78" s="4" t="s">
         <v>243</v>
       </c>
@@ -4433,7 +4433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="15">
       <c r="A79" s="4" t="s">
         <v>243</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" ht="15">
       <c r="A80" s="4" t="s">
         <v>243</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" ht="15">
       <c r="A81" s="4" t="s">
         <v>243</v>
       </c>
@@ -4553,7 +4553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" ht="15">
       <c r="A82" s="4" t="s">
         <v>243</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" ht="15">
       <c r="A83" s="4" t="s">
         <v>243</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" ht="15">
       <c r="A84" s="4" t="s">
         <v>243</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" ht="15">
       <c r="A85" s="4" t="s">
         <v>244</v>
       </c>
@@ -4713,7 +4713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" ht="15">
       <c r="A86" s="4" t="s">
         <v>244</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" ht="15">
       <c r="A87" s="4" t="s">
         <v>244</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" ht="15">
       <c r="A88" s="4" t="s">
         <v>244</v>
       </c>
@@ -4833,7 +4833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" ht="15">
       <c r="A89" s="4" t="s">
         <v>244</v>
       </c>
@@ -4873,7 +4873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" ht="15">
       <c r="A90" s="4" t="s">
         <v>244</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" ht="15">
       <c r="A91" s="4" t="s">
         <v>244</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" ht="15">
       <c r="A92" s="4" t="s">
         <v>244</v>
       </c>
@@ -4993,7 +4993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" ht="15">
       <c r="A93" s="4" t="s">
         <v>244</v>
       </c>
@@ -5033,7 +5033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" ht="15">
       <c r="A94" s="4" t="s">
         <v>245</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" ht="15">
       <c r="A95" s="4" t="s">
         <v>245</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" ht="15">
       <c r="A96" s="4" t="s">
         <v>245</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" ht="15">
       <c r="A97" s="4" t="s">
         <v>245</v>
       </c>
@@ -5193,7 +5193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" ht="15">
       <c r="A98" s="4" t="s">
         <v>246</v>
       </c>
@@ -5233,7 +5233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" ht="15">
       <c r="A99" s="4" t="s">
         <v>246</v>
       </c>
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" ht="15">
       <c r="A100" s="4" t="s">
         <v>246</v>
       </c>
@@ -5313,7 +5313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" ht="15">
       <c r="A101" s="4" t="s">
         <v>246</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" ht="15">
       <c r="A102" s="4" t="s">
         <v>246</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" ht="15">
       <c r="A103" s="4" t="s">
         <v>246</v>
       </c>
@@ -5433,7 +5433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" ht="15">
       <c r="A104" s="4" t="s">
         <v>246</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" ht="15">
       <c r="A105" s="4" t="s">
         <v>246</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" ht="15">
       <c r="A106" s="4" t="s">
         <v>246</v>
       </c>
@@ -5553,7 +5553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" ht="15">
       <c r="A107" s="4" t="s">
         <v>246</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" ht="15">
       <c r="A108" s="4" t="s">
         <v>246</v>
       </c>
@@ -5633,7 +5633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" ht="15">
       <c r="A109" s="4" t="s">
         <v>246</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" ht="15">
       <c r="A110" s="4" t="s">
         <v>246</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" ht="15">
       <c r="A111" s="4" t="s">
         <v>246</v>
       </c>
@@ -5753,7 +5753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" ht="15">
       <c r="A112" s="4" t="s">
         <v>246</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" ht="15">
       <c r="A113" s="4" t="s">
         <v>247</v>
       </c>
@@ -5833,7 +5833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" ht="15">
       <c r="A114" s="4" t="s">
         <v>247</v>
       </c>
@@ -5873,7 +5873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" ht="15">
       <c r="A115" s="4" t="s">
         <v>247</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" ht="15">
       <c r="A116" s="4" t="s">
         <v>247</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" ht="15">
       <c r="A117" s="4" t="s">
         <v>247</v>
       </c>
@@ -5993,7 +5993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" ht="15">
       <c r="A118" s="4" t="s">
         <v>247</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" ht="15">
       <c r="A119" s="4" t="s">
         <v>247</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" ht="15">
       <c r="A120" s="4" t="s">
         <v>247</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" ht="15">
       <c r="A121" s="4" t="s">
         <v>247</v>
       </c>
@@ -6153,7 +6153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" ht="15">
       <c r="A122" s="4" t="s">
         <v>247</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" ht="15">
       <c r="A123" s="4" t="s">
         <v>247</v>
       </c>
@@ -6233,7 +6233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" ht="15">
       <c r="A124" s="4" t="s">
         <v>247</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" ht="15">
       <c r="A125" s="4" t="s">
         <v>247</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" ht="15">
       <c r="A126" s="4" t="s">
         <v>247</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" ht="15">
       <c r="A127" s="4" t="s">
         <v>247</v>
       </c>
@@ -6393,7 +6393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" ht="15">
       <c r="A128" s="4" t="s">
         <v>247</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" ht="15">
       <c r="A129" s="4" t="s">
         <v>248</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" ht="15">
       <c r="A130" s="4" t="s">
         <v>248</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" ht="15">
       <c r="A131" s="4" t="s">
         <v>248</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" ht="15">
       <c r="A132" s="4" t="s">
         <v>248</v>
       </c>
@@ -6593,7 +6593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" ht="15">
       <c r="A133" s="4" t="s">
         <v>248</v>
       </c>
@@ -6633,7 +6633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" ht="15">
       <c r="A134" s="4" t="s">
         <v>248</v>
       </c>
@@ -6673,7 +6673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" ht="15">
       <c r="A135" s="4" t="s">
         <v>248</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" ht="15">
       <c r="A136" s="4" t="s">
         <v>248</v>
       </c>
@@ -6753,7 +6753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" ht="15">
       <c r="A137" s="4" t="s">
         <v>248</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" ht="15">
       <c r="A138" s="4" t="s">
         <v>248</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" ht="15">
       <c r="A139" s="4" t="s">
         <v>248</v>
       </c>
@@ -6873,7 +6873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" ht="15">
       <c r="A140" s="4" t="s">
         <v>248</v>
       </c>
@@ -6913,7 +6913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" ht="15">
       <c r="A141" s="4" t="s">
         <v>248</v>
       </c>
@@ -6953,7 +6953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" ht="15">
       <c r="A142" s="4" t="s">
         <v>248</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" ht="15">
       <c r="A143" s="4" t="s">
         <v>248</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" ht="15">
       <c r="A144" s="4" t="s">
         <v>248</v>
       </c>
@@ -7073,7 +7073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" ht="15">
       <c r="A145" s="4" t="s">
         <v>248</v>
       </c>
@@ -7113,7 +7113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" ht="15">
       <c r="A146" s="4" t="s">
         <v>249</v>
       </c>
@@ -7153,7 +7153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" ht="15">
       <c r="A147" s="4" t="s">
         <v>249</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" ht="15">
       <c r="A148" s="4" t="s">
         <v>249</v>
       </c>
@@ -7233,7 +7233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" ht="15">
       <c r="A149" s="4" t="s">
         <v>249</v>
       </c>
@@ -7273,7 +7273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" ht="15">
       <c r="A150" s="4" t="s">
         <v>249</v>
       </c>
@@ -7313,7 +7313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" ht="15">
       <c r="A151" s="4" t="s">
         <v>250</v>
       </c>
@@ -7353,7 +7353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" ht="15">
       <c r="A152" s="4" t="s">
         <v>250</v>
       </c>
@@ -7393,7 +7393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" ht="15">
       <c r="A153" s="4" t="s">
         <v>250</v>
       </c>
@@ -7433,7 +7433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" ht="15">
       <c r="A154" s="4" t="s">
         <v>250</v>
       </c>
@@ -7473,7 +7473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" ht="15">
       <c r="A155" s="4" t="s">
         <v>250</v>
       </c>
@@ -7513,7 +7513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" ht="15">
       <c r="A156" s="4" t="s">
         <v>250</v>
       </c>
@@ -7553,7 +7553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" ht="15">
       <c r="A157" s="4" t="s">
         <v>251</v>
       </c>
@@ -7593,7 +7593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" ht="15">
       <c r="A158" s="4" t="s">
         <v>251</v>
       </c>
@@ -7633,7 +7633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" ht="15">
       <c r="A159" s="4" t="s">
         <v>251</v>
       </c>
@@ -7673,7 +7673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" ht="15">
       <c r="A160" s="4" t="s">
         <v>251</v>
       </c>
@@ -7713,7 +7713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" ht="15">
       <c r="A161" s="4" t="s">
         <v>251</v>
       </c>
@@ -7753,7 +7753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" ht="15">
       <c r="A162" s="4" t="s">
         <v>251</v>
       </c>
@@ -7793,7 +7793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" ht="15">
       <c r="A163" s="4" t="s">
         <v>251</v>
       </c>
@@ -7833,7 +7833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" ht="15">
       <c r="A164" s="4" t="s">
         <v>251</v>
       </c>
@@ -7873,7 +7873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" ht="15">
       <c r="A165" s="4" t="s">
         <v>251</v>
       </c>
@@ -7913,7 +7913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" ht="15">
       <c r="A166" s="4" t="s">
         <v>251</v>
       </c>
@@ -7953,7 +7953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" ht="15">
       <c r="A167" s="4" t="s">
         <v>252</v>
       </c>
@@ -7993,7 +7993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" ht="15">
       <c r="A168" s="4" t="s">
         <v>252</v>
       </c>
@@ -8033,7 +8033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" ht="15">
       <c r="A169" s="4" t="s">
         <v>252</v>
       </c>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" ht="15">
       <c r="A170" s="4" t="s">
         <v>252</v>
       </c>
@@ -8113,7 +8113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" ht="15">
       <c r="A171" s="4" t="s">
         <v>252</v>
       </c>
@@ -8153,7 +8153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" ht="15">
       <c r="A172" s="4" t="s">
         <v>252</v>
       </c>
@@ -8193,7 +8193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" ht="15">
       <c r="A173" s="4" t="s">
         <v>252</v>
       </c>
@@ -8233,7 +8233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" ht="15">
       <c r="A174" s="4" t="s">
         <v>252</v>
       </c>
@@ -8273,7 +8273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" ht="15">
       <c r="A175" s="4" t="s">
         <v>252</v>
       </c>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" ht="15">
       <c r="A176" s="4" t="s">
         <v>252</v>
       </c>
@@ -8353,7 +8353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" ht="15">
       <c r="A177" s="4" t="s">
         <v>252</v>
       </c>
@@ -8393,7 +8393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" ht="15">
       <c r="A178" s="4" t="s">
         <v>253</v>
       </c>
@@ -8433,7 +8433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" ht="15">
       <c r="A179" s="4" t="s">
         <v>253</v>
       </c>
@@ -8473,7 +8473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" ht="15">
       <c r="A180" s="4" t="s">
         <v>253</v>
       </c>
@@ -8513,7 +8513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" ht="15">
       <c r="A181" s="4" t="s">
         <v>253</v>
       </c>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" ht="15">
       <c r="A182" s="4" t="s">
         <v>253</v>
       </c>
@@ -8593,7 +8593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" ht="15">
       <c r="A183" s="4" t="s">
         <v>253</v>
       </c>
@@ -8633,7 +8633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" ht="15">
       <c r="A184" s="4" t="s">
         <v>253</v>
       </c>
@@ -8673,7 +8673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" ht="15">
       <c r="A185" s="4" t="s">
         <v>253</v>
       </c>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" ht="15">
       <c r="A186" s="4" t="s">
         <v>253</v>
       </c>
@@ -8753,7 +8753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" ht="15">
       <c r="A187" s="4" t="s">
         <v>253</v>
       </c>
@@ -8793,7 +8793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" ht="15">
       <c r="A188" s="4" t="s">
         <v>253</v>
       </c>
@@ -8833,7 +8833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" ht="15">
       <c r="A189" s="4" t="s">
         <v>253</v>
       </c>
@@ -8873,7 +8873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" ht="15">
       <c r="A190" s="4" t="s">
         <v>253</v>
       </c>
@@ -8913,7 +8913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" ht="15">
       <c r="A191" s="4" t="s">
         <v>253</v>
       </c>
@@ -8953,7 +8953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" ht="15">
       <c r="A192" s="4" t="s">
         <v>253</v>
       </c>
@@ -8993,7 +8993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" ht="15">
       <c r="A193" s="4" t="s">
         <v>253</v>
       </c>
@@ -9033,7 +9033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" ht="15">
       <c r="A194" s="4" t="s">
         <v>253</v>
       </c>
@@ -9073,7 +9073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" ht="15">
       <c r="A195" s="4" t="s">
         <v>253</v>
       </c>
@@ -9113,7 +9113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" ht="15">
       <c r="A196" s="4" t="s">
         <v>254</v>
       </c>
@@ -9153,7 +9153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" ht="15">
       <c r="A197" s="4" t="s">
         <v>254</v>
       </c>
@@ -9193,7 +9193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" ht="15">
       <c r="A198" s="4" t="s">
         <v>254</v>
       </c>
@@ -9233,7 +9233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" ht="15">
       <c r="A199" s="4" t="s">
         <v>254</v>
       </c>
@@ -9273,7 +9273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" ht="15">
       <c r="A200" s="4" t="s">
         <v>254</v>
       </c>
@@ -9313,7 +9313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" ht="15">
       <c r="A201" s="4" t="s">
         <v>254</v>
       </c>
@@ -9353,7 +9353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" ht="15">
       <c r="A202" s="4" t="s">
         <v>254</v>
       </c>
@@ -9393,7 +9393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" ht="15">
       <c r="A203" s="4" t="s">
         <v>254</v>
       </c>
@@ -9433,7 +9433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" ht="15">
       <c r="A204" s="4" t="s">
         <v>254</v>
       </c>
@@ -9473,7 +9473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" ht="15">
       <c r="A205" s="4" t="s">
         <v>254</v>
       </c>
@@ -9513,7 +9513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" ht="15">
       <c r="A206" s="4" t="s">
         <v>254</v>
       </c>
@@ -9553,7 +9553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" ht="15">
       <c r="A207" s="4" t="s">
         <v>254</v>
       </c>
@@ -9593,7 +9593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" ht="15">
       <c r="A208" s="4" t="s">
         <v>254</v>
       </c>
@@ -9633,7 +9633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" ht="15">
       <c r="A209" s="4" t="s">
         <v>254</v>
       </c>
@@ -9673,7 +9673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" ht="15">
       <c r="A210" s="4" t="s">
         <v>254</v>
       </c>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" ht="15">
       <c r="A211" s="4" t="s">
         <v>254</v>
       </c>
@@ -9753,7 +9753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" ht="15">
       <c r="A212" s="4" t="s">
         <v>254</v>
       </c>
@@ -9793,7 +9793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" ht="15">
       <c r="A213" s="4" t="s">
         <v>254</v>
       </c>
@@ -9833,7 +9833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" ht="15">
       <c r="A214" s="4" t="s">
         <v>254</v>
       </c>
@@ -9873,7 +9873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" ht="15">
       <c r="A215" s="4" t="s">
         <v>254</v>
       </c>
@@ -9913,7 +9913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" ht="15">
       <c r="A216" s="4" t="s">
         <v>254</v>
       </c>
@@ -9953,7 +9953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" ht="15">
       <c r="A217" s="4" t="s">
         <v>254</v>
       </c>
@@ -9993,7 +9993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" ht="15">
       <c r="A218" s="4" t="s">
         <v>255</v>
       </c>
@@ -10033,7 +10033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" ht="15">
       <c r="A219" s="4" t="s">
         <v>255</v>
       </c>
@@ -10073,7 +10073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" ht="15">
       <c r="A220" s="4" t="s">
         <v>255</v>
       </c>
@@ -10113,7 +10113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" ht="15">
       <c r="A221" s="4" t="s">
         <v>255</v>
       </c>
@@ -10153,7 +10153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" ht="15">
       <c r="A222" s="4" t="s">
         <v>255</v>
       </c>
@@ -10193,7 +10193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" ht="15">
       <c r="A223" s="4" t="s">
         <v>255</v>
       </c>
@@ -10233,7 +10233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" ht="15">
       <c r="A224" s="4" t="s">
         <v>255</v>
       </c>
@@ -10273,7 +10273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" ht="15">
       <c r="A225" s="4" t="s">
         <v>255</v>
       </c>
@@ -10313,7 +10313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" ht="15">
       <c r="A226" s="4" t="s">
         <v>255</v>
       </c>
@@ -10353,7 +10353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" ht="15">
       <c r="A227" s="4" t="s">
         <v>255</v>
       </c>
@@ -10393,7 +10393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" ht="15">
       <c r="A228" s="4" t="s">
         <v>255</v>
       </c>
@@ -10433,7 +10433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" ht="15">
       <c r="A229" s="4" t="s">
         <v>255</v>
       </c>
@@ -10473,7 +10473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" ht="15">
       <c r="A230" s="4" t="s">
         <v>255</v>
       </c>
@@ -10513,7 +10513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" ht="15">
       <c r="A231" s="4" t="s">
         <v>255</v>
       </c>
@@ -10553,7 +10553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" ht="15">
       <c r="A232" s="4" t="s">
         <v>255</v>
       </c>
@@ -10593,7 +10593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" ht="15">
       <c r="A233" s="4" t="s">
         <v>255</v>
       </c>
@@ -10633,7 +10633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" ht="15">
       <c r="A234" s="4" t="s">
         <v>255</v>
       </c>
@@ -10673,7 +10673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" ht="15">
       <c r="A235" s="4" t="s">
         <v>255</v>
       </c>
@@ -10713,7 +10713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" ht="15">
       <c r="A236" s="4" t="s">
         <v>256</v>
       </c>
@@ -10753,7 +10753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" ht="15">
       <c r="A237" s="4" t="s">
         <v>256</v>
       </c>
@@ -10793,7 +10793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" ht="15">
       <c r="A238" s="4" t="s">
         <v>256</v>
       </c>
@@ -10833,7 +10833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" ht="15">
       <c r="A239" s="4" t="s">
         <v>256</v>
       </c>
@@ -10873,7 +10873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" ht="15">
       <c r="A240" s="4" t="s">
         <v>256</v>
       </c>
@@ -10913,7 +10913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" ht="15">
       <c r="A241" s="4" t="s">
         <v>256</v>
       </c>
@@ -10953,7 +10953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" ht="15">
       <c r="A242" s="4" t="s">
         <v>257</v>
       </c>
@@ -10993,7 +10993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" ht="15">
       <c r="A243" s="4" t="s">
         <v>257</v>
       </c>
@@ -11033,7 +11033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" ht="15">
       <c r="A244" s="4" t="s">
         <v>257</v>
       </c>
@@ -11073,7 +11073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" ht="15">
       <c r="A245" s="4" t="s">
         <v>257</v>
       </c>
@@ -11113,7 +11113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" ht="15">
       <c r="A246" s="4" t="s">
         <v>257</v>
       </c>
@@ -11153,7 +11153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" ht="15">
       <c r="A247" s="4" t="s">
         <v>257</v>
       </c>
@@ -11193,7 +11193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" ht="15">
       <c r="A248" s="4" t="s">
         <v>257</v>
       </c>
@@ -11233,7 +11233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" ht="15">
       <c r="A249" s="4" t="s">
         <v>258</v>
       </c>
@@ -11273,7 +11273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" ht="15">
       <c r="A250" s="4" t="s">
         <v>258</v>
       </c>
@@ -11313,7 +11313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" ht="15">
       <c r="A251" s="4" t="s">
         <v>258</v>
       </c>
@@ -11353,7 +11353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" ht="15">
       <c r="A252" s="4" t="s">
         <v>258</v>
       </c>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" ht="15">
       <c r="A253" s="4" t="s">
         <v>258</v>
       </c>
@@ -11433,7 +11433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" ht="15">
       <c r="A254" s="4" t="s">
         <v>258</v>
       </c>
@@ -11473,7 +11473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" ht="15">
       <c r="A255" s="4" t="s">
         <v>258</v>
       </c>
@@ -11513,7 +11513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" ht="15">
       <c r="A256" s="4" t="s">
         <v>259</v>
       </c>
@@ -11553,7 +11553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" ht="15">
       <c r="A257" s="4" t="s">
         <v>259</v>
       </c>
@@ -11593,7 +11593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" ht="15">
       <c r="A258" s="4" t="s">
         <v>259</v>
       </c>
@@ -11633,7 +11633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" ht="15">
       <c r="A259" s="4" t="s">
         <v>259</v>
       </c>
@@ -11673,7 +11673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" ht="15">
       <c r="A260" s="4" t="s">
         <v>259</v>
       </c>
@@ -11713,7 +11713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" ht="15">
       <c r="A261" s="4" t="s">
         <v>259</v>
       </c>
@@ -11753,7 +11753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" ht="15">
       <c r="A262" s="4" t="s">
         <v>259</v>
       </c>
@@ -11793,7 +11793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" ht="15">
       <c r="A263" s="4" t="s">
         <v>260</v>
       </c>
@@ -11833,7 +11833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" ht="15">
       <c r="A264" s="4" t="s">
         <v>260</v>
       </c>
@@ -11873,7 +11873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" ht="15">
       <c r="A265" s="4" t="s">
         <v>260</v>
       </c>
@@ -11913,7 +11913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" ht="15">
       <c r="A266" s="4" t="s">
         <v>260</v>
       </c>
@@ -11953,7 +11953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" ht="15">
       <c r="A267" s="4" t="s">
         <v>260</v>
       </c>
@@ -11993,7 +11993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" ht="15">
       <c r="A268" s="4" t="s">
         <v>260</v>
       </c>
@@ -12033,7 +12033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" ht="15">
       <c r="A269" s="4" t="s">
         <v>260</v>
       </c>
@@ -12073,7 +12073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" ht="15">
       <c r="A270" s="4" t="s">
         <v>261</v>
       </c>
@@ -12113,7 +12113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" ht="15">
       <c r="A271" s="4" t="s">
         <v>261</v>
       </c>
@@ -12153,7 +12153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" ht="15">
       <c r="A272" s="4" t="s">
         <v>261</v>
       </c>
@@ -12193,7 +12193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" ht="15">
       <c r="A273" s="4" t="s">
         <v>261</v>
       </c>
@@ -12233,7 +12233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" ht="15">
       <c r="A274" s="4" t="s">
         <v>261</v>
       </c>
@@ -12273,7 +12273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" ht="15">
       <c r="A275" s="4" t="s">
         <v>261</v>
       </c>
@@ -12313,7 +12313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" ht="15">
       <c r="A276" s="4" t="s">
         <v>261</v>
       </c>
@@ -12353,7 +12353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" ht="15">
       <c r="A277" s="4" t="s">
         <v>262</v>
       </c>
@@ -12393,7 +12393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" ht="15">
       <c r="A278" s="4" t="s">
         <v>262</v>
       </c>
@@ -12433,7 +12433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" ht="15">
       <c r="A279" s="4" t="s">
         <v>262</v>
       </c>
@@ -12473,7 +12473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" ht="15">
       <c r="A280" s="4" t="s">
         <v>262</v>
       </c>
@@ -12513,7 +12513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" ht="15">
       <c r="A281" s="4" t="s">
         <v>262</v>
       </c>
@@ -12553,7 +12553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" ht="15">
       <c r="A282" s="4" t="s">
         <v>262</v>
       </c>
@@ -12593,7 +12593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" ht="15">
       <c r="A283" s="4" t="s">
         <v>262</v>
       </c>
@@ -12633,7 +12633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" ht="15">
       <c r="A284" s="4" t="s">
         <v>263</v>
       </c>
@@ -12673,7 +12673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" ht="15">
       <c r="A285" s="4" t="s">
         <v>263</v>
       </c>
@@ -12713,7 +12713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" ht="15">
       <c r="A286" s="4" t="s">
         <v>263</v>
       </c>
@@ -12753,7 +12753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" ht="15">
       <c r="A287" s="4" t="s">
         <v>263</v>
       </c>
@@ -12793,7 +12793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" ht="15">
       <c r="A288" s="4" t="s">
         <v>263</v>
       </c>
@@ -12833,7 +12833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" ht="15">
       <c r="A289" s="4" t="s">
         <v>263</v>
       </c>
@@ -12873,7 +12873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" ht="15">
       <c r="A290" s="4" t="s">
         <v>264</v>
       </c>
@@ -12913,7 +12913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" ht="15">
       <c r="A291" s="4" t="s">
         <v>264</v>
       </c>
@@ -12953,7 +12953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" ht="15">
       <c r="A292" s="4" t="s">
         <v>264</v>
       </c>
@@ -12993,7 +12993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" ht="15">
       <c r="A293" s="4" t="s">
         <v>264</v>
       </c>
@@ -13033,7 +13033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" ht="15">
       <c r="A294" s="4" t="s">
         <v>264</v>
       </c>
@@ -13073,7 +13073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" ht="15">
       <c r="A295" s="4" t="s">
         <v>264</v>
       </c>
@@ -13113,7 +13113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" ht="15">
       <c r="A296" s="4" t="s">
         <v>265</v>
       </c>
@@ -13153,7 +13153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" ht="15">
       <c r="A297" s="4" t="s">
         <v>265</v>
       </c>
@@ -13193,7 +13193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" ht="15">
       <c r="A298" s="4" t="s">
         <v>265</v>
       </c>
@@ -13233,7 +13233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" ht="15">
       <c r="A299" s="4" t="s">
         <v>265</v>
       </c>
@@ -13273,7 +13273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" ht="15">
       <c r="A300" s="4" t="s">
         <v>265</v>
       </c>
@@ -13327,7 +13327,7 @@
       <selection activeCell="A2" sqref="A2:XFD24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="26.375" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
@@ -13339,7 +13339,7 @@
     <col min="10" max="10" width="19.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" ht="15">
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
@@ -13368,7 +13368,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="15">
       <c r="B2" t="s">
         <v>21</v>
       </c>
@@ -13405,7 +13405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" ht="15">
       <c r="B3" t="s">
         <v>22</v>
       </c>
@@ -13442,7 +13442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="15">
       <c r="B4" t="s">
         <v>23</v>
       </c>
@@ -13479,7 +13479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="15">
       <c r="B5" t="s">
         <v>24</v>
       </c>
@@ -13516,7 +13516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="15">
       <c r="B6" t="s">
         <v>25</v>
       </c>
@@ -13553,7 +13553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="15">
       <c r="B7" t="s">
         <v>26</v>
       </c>
@@ -13590,7 +13590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" ht="15">
       <c r="B8" t="s">
         <v>27</v>
       </c>
@@ -13627,7 +13627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" ht="15">
       <c r="B9" t="s">
         <v>28</v>
       </c>
@@ -13664,7 +13664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" ht="15">
       <c r="B10" t="s">
         <v>29</v>
       </c>
@@ -13701,7 +13701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" ht="15">
       <c r="B11" t="s">
         <v>30</v>
       </c>
@@ -13738,7 +13738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" ht="15">
       <c r="B12" t="s">
         <v>31</v>
       </c>
@@ -13775,7 +13775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" ht="15">
       <c r="B13" t="s">
         <v>32</v>
       </c>
@@ -13812,7 +13812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" ht="15">
       <c r="B14" t="s">
         <v>33</v>
       </c>
@@ -13849,7 +13849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" ht="15">
       <c r="B15" t="s">
         <v>34</v>
       </c>
@@ -13886,7 +13886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" ht="15">
       <c r="B16" t="s">
         <v>35</v>
       </c>
@@ -13923,7 +13923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" ht="15">
       <c r="B17" t="s">
         <v>35</v>
       </c>
@@ -13960,7 +13960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" ht="15">
       <c r="B18" t="s">
         <v>5</v>
       </c>
@@ -13997,7 +13997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" ht="15">
       <c r="B19" t="s">
         <v>14</v>
       </c>
@@ -14034,7 +14034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" ht="15">
       <c r="B20" t="s">
         <v>4</v>
       </c>
@@ -14071,7 +14071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" ht="15">
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -14108,7 +14108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" ht="15">
       <c r="B22" t="s">
         <v>0</v>
       </c>
@@ -14145,7 +14145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" ht="15">
       <c r="B23" t="s">
         <v>15</v>
       </c>
@@ -14182,7 +14182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" ht="15">
       <c r="B24" t="s">
         <v>3</v>
       </c>
@@ -14219,7 +14219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" ht="15">
       <c r="B25" t="s">
         <v>16</v>
       </c>
@@ -14256,7 +14256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" ht="15">
       <c r="B26" t="s">
         <v>0</v>
       </c>
@@ -14293,7 +14293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" ht="15">
       <c r="B27" t="s">
         <v>15</v>
       </c>
@@ -14330,7 +14330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" ht="15">
       <c r="B28" t="s">
         <v>15</v>
       </c>
@@ -14367,7 +14367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" ht="15">
       <c r="B29" t="s">
         <v>2</v>
       </c>
@@ -14404,7 +14404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" ht="15">
       <c r="B30" t="s">
         <v>18</v>
       </c>
@@ -14441,7 +14441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" ht="15">
       <c r="B31" t="s">
         <v>17</v>
       </c>
@@ -14478,7 +14478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" ht="15">
       <c r="B32" t="s">
         <v>1</v>
       </c>
@@ -14515,7 +14515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" ht="15">
       <c r="B33" t="s">
         <v>19</v>
       </c>
@@ -14552,7 +14552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" ht="15">
       <c r="B34" t="s">
         <v>0</v>
       </c>
@@ -14599,598 +14599,598 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H32"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection sqref="A1:D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="5"/>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="6" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="6" t="s">
+      <c r="F1" s="19"/>
+      <c r="G1" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="H1" s="8"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="H1" s="19"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickBot="1">
+      <c r="A2" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:8" ht="15" thickTop="1">
+      <c r="A3" s="10" t="s">
         <v>142</v>
       </c>
       <c r="B3">
         <v>464372</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="11">
         <v>427017</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="12">
         <f t="shared" ref="D3:D32" si="0">SUM(B3/C3)</f>
         <v>1.087478952828576</v>
       </c>
       <c r="F3" s="5"/>
-      <c r="G3" s="16"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4" s="14" t="s">
         <v>143</v>
       </c>
       <c r="B4">
         <v>174594</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="11">
         <v>202116</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="12">
         <f t="shared" si="0"/>
         <v>0.8638306714955768</v>
       </c>
       <c r="F4" s="5"/>
-      <c r="G4" s="16"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5" s="14" t="s">
         <v>144</v>
       </c>
       <c r="B5">
         <v>138000</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="11">
         <v>147443</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="12">
         <f t="shared" si="0"/>
         <v>0.93595491138948606</v>
       </c>
       <c r="F5" s="5"/>
-      <c r="G5" s="16"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" s="15" t="s">
         <v>145</v>
       </c>
       <c r="B6">
         <v>35187</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="11">
         <v>33168</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="12">
         <f t="shared" si="0"/>
         <v>1.0608719247467437</v>
       </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="16"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" s="15" t="s">
         <v>146</v>
       </c>
       <c r="B7">
         <v>29187</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="11">
         <v>39300</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="12">
         <f t="shared" si="0"/>
         <v>0.74267175572519084</v>
       </c>
       <c r="F7" s="5"/>
-      <c r="G7" s="16"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
+    <row r="8" spans="1:8">
+      <c r="A8" s="14" t="s">
         <v>147</v>
       </c>
       <c r="B8">
         <v>18375</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="11">
         <v>21785</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="12">
         <f t="shared" si="0"/>
         <v>0.84347027771402339</v>
       </c>
       <c r="F8" s="5"/>
-      <c r="G8" s="16"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9" s="15" t="s">
         <v>36</v>
       </c>
       <c r="B9">
         <v>9002</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="11">
         <v>10634</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="12">
         <f t="shared" si="0"/>
         <v>0.84652999811924012</v>
       </c>
       <c r="F9" s="5"/>
-      <c r="G9" s="16"/>
+      <c r="G9" s="13"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+    <row r="10" spans="1:8">
+      <c r="A10" s="15" t="s">
         <v>148</v>
       </c>
       <c r="B10">
         <v>8343</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="11">
         <v>9522</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="12">
         <f t="shared" si="0"/>
         <v>0.87618147448015127</v>
       </c>
       <c r="F10" s="5"/>
-      <c r="G10" s="16"/>
+      <c r="G10" s="13"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
+    <row r="11" spans="1:8">
+      <c r="A11" s="14" t="s">
         <v>149</v>
       </c>
       <c r="B11">
         <v>8046</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="11">
         <v>1123</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="12">
         <f t="shared" si="0"/>
         <v>7.1647373107747105</v>
       </c>
       <c r="F11" s="5"/>
-      <c r="G11" s="16"/>
+      <c r="G11" s="13"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
+    <row r="12" spans="1:8">
+      <c r="A12" s="15" t="s">
         <v>150</v>
       </c>
       <c r="B12">
         <v>7860</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="11">
         <v>12655</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="12">
         <f t="shared" si="0"/>
         <v>0.6210983800869222</v>
       </c>
       <c r="F12" s="5"/>
-      <c r="G12" s="16"/>
+      <c r="G12" s="13"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
+    <row r="13" spans="1:8">
+      <c r="A13" s="15" t="s">
         <v>151</v>
       </c>
       <c r="B13">
         <v>7687</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="11">
         <v>8998</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="12">
         <f t="shared" si="0"/>
         <v>0.8543009557679484</v>
       </c>
       <c r="F13" s="5"/>
-      <c r="G13" s="16"/>
+      <c r="G13" s="13"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
+    <row r="14" spans="1:8">
+      <c r="A14" s="14" t="s">
         <v>152</v>
       </c>
       <c r="B14">
         <v>6813</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="11">
         <v>11381</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="12">
         <f t="shared" si="0"/>
         <v>0.59862929443809854</v>
       </c>
       <c r="F14" s="5"/>
-      <c r="G14" s="16"/>
+      <c r="G14" s="13"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
+    <row r="15" spans="1:8">
+      <c r="A15" s="15" t="s">
         <v>153</v>
       </c>
       <c r="B15">
         <v>5968</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="11">
         <v>6429</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="12">
         <f t="shared" si="0"/>
         <v>0.92829366931093482</v>
       </c>
       <c r="F15" s="5"/>
-      <c r="G15" s="16"/>
+      <c r="G15" s="13"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
+    <row r="16" spans="1:8">
+      <c r="A16" s="14" t="s">
         <v>154</v>
       </c>
       <c r="B16">
         <v>5937</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="11">
         <v>6347</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="12">
         <f t="shared" si="0"/>
         <v>0.93540255238695447</v>
       </c>
       <c r="F16" s="5"/>
-      <c r="G16" s="16"/>
+      <c r="G16" s="13"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="18" t="s">
+    <row r="17" spans="1:8">
+      <c r="A17" s="15" t="s">
         <v>155</v>
       </c>
       <c r="B17">
         <v>5860</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="11">
         <v>6249</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="12">
         <f t="shared" si="0"/>
         <v>0.93775004000640105</v>
       </c>
       <c r="F17" s="5"/>
-      <c r="G17" s="16"/>
+      <c r="G17" s="13"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
+    <row r="18" spans="1:8">
+      <c r="A18" s="14" t="s">
         <v>156</v>
       </c>
       <c r="B18">
         <v>5344</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="11">
         <v>5973</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="12">
         <f t="shared" si="0"/>
         <v>0.89469278419554665</v>
       </c>
       <c r="F18" s="5"/>
-      <c r="G18" s="16"/>
+      <c r="G18" s="13"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="17" t="s">
+    <row r="19" spans="1:8">
+      <c r="A19" s="14" t="s">
         <v>157</v>
       </c>
       <c r="B19">
         <v>4452</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="11">
         <v>1244</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="12">
         <f t="shared" si="0"/>
         <v>3.5787781350482315</v>
       </c>
       <c r="F19" s="5"/>
-      <c r="G19" s="16"/>
+      <c r="G19" s="13"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="18" t="s">
+    <row r="20" spans="1:8">
+      <c r="A20" s="15" t="s">
         <v>158</v>
       </c>
       <c r="B20">
         <v>3125</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="11">
         <v>3433</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="12">
         <f t="shared" si="0"/>
         <v>0.91028255170404893</v>
       </c>
       <c r="F20" s="5"/>
-      <c r="G20" s="16"/>
+      <c r="G20" s="13"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="17" t="s">
+    <row r="21" spans="1:8">
+      <c r="A21" s="14" t="s">
         <v>159</v>
       </c>
       <c r="B21">
         <v>3094</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="11">
         <v>5483</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="12">
         <f t="shared" si="0"/>
         <v>0.56428962246945102</v>
       </c>
       <c r="F21" s="5"/>
-      <c r="G21" s="16"/>
+      <c r="G21" s="13"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="17" t="s">
+    <row r="22" spans="1:8">
+      <c r="A22" s="14" t="s">
         <v>160</v>
       </c>
       <c r="B22">
         <v>2360</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="11">
         <v>2650</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="12">
         <f t="shared" si="0"/>
         <v>0.89056603773584908</v>
       </c>
       <c r="F22" s="5"/>
-      <c r="G22" s="16"/>
+      <c r="G22" s="13"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="17" t="s">
+    <row r="23" spans="1:8">
+      <c r="A23" s="14" t="s">
         <v>161</v>
       </c>
       <c r="B23">
         <v>1217</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="11">
         <v>3960</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="12">
         <f t="shared" si="0"/>
         <v>0.30732323232323233</v>
       </c>
       <c r="F23" s="5"/>
-      <c r="G23" s="16"/>
+      <c r="G23" s="13"/>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="18" t="s">
+    <row r="24" spans="1:8">
+      <c r="A24" s="15" t="s">
         <v>162</v>
       </c>
       <c r="B24">
         <v>32</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="11">
         <v>35</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="12">
         <f t="shared" si="0"/>
         <v>0.91428571428571426</v>
       </c>
       <c r="F24" s="5"/>
-      <c r="G24" s="16"/>
+      <c r="G24" s="13"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="18" t="s">
+    <row r="25" spans="1:8">
+      <c r="A25" s="15" t="s">
         <v>163</v>
       </c>
       <c r="B25">
         <v>31</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="11">
         <v>22</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="12">
         <f t="shared" si="0"/>
         <v>1.4090909090909092</v>
       </c>
       <c r="F25" s="5"/>
-      <c r="G25" s="16"/>
+      <c r="G25" s="13"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="17" t="s">
+    <row r="26" spans="1:8">
+      <c r="A26" s="14" t="s">
         <v>164</v>
       </c>
       <c r="B26">
         <v>31</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="11">
         <v>27</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="12">
         <f t="shared" si="0"/>
         <v>1.1481481481481481</v>
       </c>
       <c r="F26" s="5"/>
-      <c r="G26" s="16"/>
+      <c r="G26" s="13"/>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="17" t="s">
+    <row r="27" spans="1:8">
+      <c r="A27" s="14" t="s">
         <v>165</v>
       </c>
       <c r="B27">
         <v>31</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="11">
         <v>72</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="12">
         <f t="shared" si="0"/>
         <v>0.43055555555555558</v>
       </c>
       <c r="F27" s="5"/>
-      <c r="G27" s="16"/>
+      <c r="G27" s="13"/>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="17" t="s">
+    <row r="28" spans="1:8">
+      <c r="A28" s="14" t="s">
         <v>166</v>
       </c>
       <c r="B28">
         <v>16</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="11">
         <v>13</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D28" s="12">
         <f t="shared" si="0"/>
         <v>1.2307692307692308</v>
       </c>
       <c r="F28" s="5"/>
-      <c r="G28" s="16"/>
+      <c r="G28" s="13"/>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="17" t="s">
+    <row r="29" spans="1:8">
+      <c r="A29" s="14" t="s">
         <v>167</v>
       </c>
       <c r="B29">
         <v>16</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="11">
         <v>13</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="12">
         <f t="shared" si="0"/>
         <v>1.2307692307692308</v>
       </c>
       <c r="F29" s="5"/>
-      <c r="G29" s="16"/>
+      <c r="G29" s="13"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="18" t="s">
+    <row r="30" spans="1:8">
+      <c r="A30" s="15" t="s">
         <v>168</v>
       </c>
       <c r="B30">
         <v>16</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="11">
         <v>184</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="12">
         <f t="shared" si="0"/>
         <v>8.6956521739130432E-2</v>
       </c>
       <c r="F30" s="5"/>
-      <c r="G30" s="16"/>
+      <c r="G30" s="13"/>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="18" t="s">
+    <row r="31" spans="1:8">
+      <c r="A31" s="15" t="s">
         <v>169</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31" s="11">
         <v>14</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F31" s="5"/>
-      <c r="G31" s="16"/>
+      <c r="G31" s="13"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
+    <row r="32" spans="1:8" ht="15" thickBot="1">
+      <c r="A32" s="16" t="s">
         <v>170</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C32" s="11">
         <v>34</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D32" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F32" s="5"/>
-      <c r="G32" s="16"/>
+      <c r="G32" s="13"/>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="15" thickTop="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:D1"/>

--- a/Master Thesis/Analys/Statistics-IO-Parse.xlsx
+++ b/Master Thesis/Analys/Statistics-IO-Parse.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="270">
   <si>
     <t>Table 'Worktable'. Scan count 0, logical reads 0, physical reads 0, read-ahead reads 0, lob logical reads 0, lob physical reads 0, lob read-ahead reads 0.</t>
   </si>
@@ -825,6 +825,12 @@
   </si>
   <si>
     <t>Table 'EXT_REPORT_RESULT_4_5'. Scan count 0, logical reads 4556, physical reads 0, read-ahead reads 0, lob logical reads 0, lob physical reads 0, lob read-ahead reads 0.</t>
+  </si>
+  <si>
+    <t>CPU (quad core)</t>
+  </si>
+  <si>
+    <t>CPU (single core)</t>
   </si>
 </sst>
 </file>
@@ -14597,606 +14603,736 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection sqref="A1:D33"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="5"/>
       <c r="B1" s="17" t="s">
         <v>135</v>
       </c>
       <c r="C1" s="18"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="17" t="s">
+      <c r="D1" s="18"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="19"/>
+      <c r="H1" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="H1" s="19"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1">
+      <c r="I1" s="19"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>138</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="H2" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" thickTop="1">
+    </row>
+    <row r="3" spans="1:9" ht="15" thickTop="1">
       <c r="A3" s="10" t="s">
         <v>142</v>
       </c>
       <c r="B3">
         <v>464372</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3">
+        <f>SUM(B3/4)</f>
+        <v>116093</v>
+      </c>
+      <c r="D3" s="11">
         <v>427017</v>
       </c>
-      <c r="D3" s="12">
-        <f t="shared" ref="D3:D32" si="0">SUM(B3/C3)</f>
-        <v>1.087478952828576</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="E3" s="12">
+        <f>SUM(C3/D3)</f>
+        <v>0.271869738207144</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="14" t="s">
         <v>143</v>
       </c>
       <c r="B4">
         <v>174594</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4">
+        <f>SUM(B4/4)</f>
+        <v>43648.5</v>
+      </c>
+      <c r="D4" s="11">
         <v>202116</v>
       </c>
-      <c r="D4" s="12">
-        <f t="shared" si="0"/>
-        <v>0.8638306714955768</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="E4" s="12">
+        <f>SUM(C4/D4)</f>
+        <v>0.2159576678738942</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="14" t="s">
         <v>144</v>
       </c>
       <c r="B5">
         <v>138000</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5">
+        <f>SUM(B5/4)</f>
+        <v>34500</v>
+      </c>
+      <c r="D5" s="11">
         <v>147443</v>
       </c>
-      <c r="D5" s="12">
-        <f t="shared" si="0"/>
-        <v>0.93595491138948606</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="E5" s="12">
+        <f>SUM(C5/D5)</f>
+        <v>0.23398872784737151</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="15" t="s">
         <v>145</v>
       </c>
       <c r="B6">
         <v>35187</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6">
+        <f>SUM(B6/4)</f>
+        <v>8796.75</v>
+      </c>
+      <c r="D6" s="11">
         <v>33168</v>
       </c>
-      <c r="D6" s="12">
-        <f t="shared" si="0"/>
-        <v>1.0608719247467437</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="E6" s="12">
+        <f>SUM(C6/D6)</f>
+        <v>0.26521798118668594</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="15" t="s">
         <v>146</v>
       </c>
       <c r="B7">
         <v>29187</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7">
+        <f>SUM(B7/4)</f>
+        <v>7296.75</v>
+      </c>
+      <c r="D7" s="11">
         <v>39300</v>
       </c>
-      <c r="D7" s="12">
-        <f t="shared" si="0"/>
-        <v>0.74267175572519084</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="E7" s="12">
+        <f>SUM(C7/D7)</f>
+        <v>0.18566793893129771</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="14" t="s">
         <v>147</v>
       </c>
       <c r="B8">
         <v>18375</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8">
+        <f>SUM(B8/4)</f>
+        <v>4593.75</v>
+      </c>
+      <c r="D8" s="11">
         <v>21785</v>
       </c>
-      <c r="D8" s="12">
-        <f t="shared" si="0"/>
-        <v>0.84347027771402339</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="E8" s="12">
+        <f>SUM(C8/D8)</f>
+        <v>0.21086756942850585</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="15" t="s">
         <v>36</v>
       </c>
       <c r="B9">
         <v>9002</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9">
+        <f>SUM(B9/4)</f>
+        <v>2250.5</v>
+      </c>
+      <c r="D9" s="11">
         <v>10634</v>
       </c>
-      <c r="D9" s="12">
-        <f t="shared" si="0"/>
-        <v>0.84652999811924012</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="E9" s="12">
+        <f>SUM(C9/D9)</f>
+        <v>0.21163249952981003</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="15" t="s">
         <v>148</v>
       </c>
       <c r="B10">
         <v>8343</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10">
+        <f>SUM(B10/4)</f>
+        <v>2085.75</v>
+      </c>
+      <c r="D10" s="11">
         <v>9522</v>
       </c>
-      <c r="D10" s="12">
-        <f t="shared" si="0"/>
-        <v>0.87618147448015127</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="E10" s="12">
+        <f>SUM(C10/D10)</f>
+        <v>0.21904536862003782</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="14" t="s">
         <v>149</v>
       </c>
       <c r="B11">
         <v>8046</v>
       </c>
-      <c r="C11" s="11">
-        <v>1123</v>
-      </c>
-      <c r="D11" s="12">
-        <f t="shared" si="0"/>
-        <v>7.1647373107747105</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="C11">
+        <f>SUM(B11/4)</f>
+        <v>2011.5</v>
+      </c>
+      <c r="D11" s="11">
+        <v>2536</v>
+      </c>
+      <c r="E11" s="12">
+        <f>SUM(C11/D11)</f>
+        <v>0.79317823343848581</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="15" t="s">
         <v>150</v>
       </c>
       <c r="B12">
         <v>7860</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12">
+        <f>SUM(B12/4)</f>
+        <v>1965</v>
+      </c>
+      <c r="D12" s="11">
         <v>12655</v>
       </c>
-      <c r="D12" s="12">
-        <f t="shared" si="0"/>
-        <v>0.6210983800869222</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="E12" s="12">
+        <f>SUM(C12/D12)</f>
+        <v>0.15527459502173055</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="15" t="s">
         <v>151</v>
       </c>
       <c r="B13">
         <v>7687</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13">
+        <f>SUM(B13/4)</f>
+        <v>1921.75</v>
+      </c>
+      <c r="D13" s="11">
         <v>8998</v>
       </c>
-      <c r="D13" s="12">
-        <f t="shared" si="0"/>
-        <v>0.8543009557679484</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="E13" s="12">
+        <f>SUM(C13/D13)</f>
+        <v>0.2135752389419871</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="14" t="s">
         <v>152</v>
       </c>
       <c r="B14">
         <v>6813</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14">
+        <f>SUM(B14/4)</f>
+        <v>1703.25</v>
+      </c>
+      <c r="D14" s="11">
         <v>11381</v>
       </c>
-      <c r="D14" s="12">
-        <f t="shared" si="0"/>
-        <v>0.59862929443809854</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="E14" s="12">
+        <f>SUM(C14/D14)</f>
+        <v>0.14965732360952463</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="15" t="s">
         <v>153</v>
       </c>
       <c r="B15">
         <v>5968</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15">
+        <f>SUM(B15/4)</f>
+        <v>1492</v>
+      </c>
+      <c r="D15" s="11">
         <v>6429</v>
       </c>
-      <c r="D15" s="12">
-        <f t="shared" si="0"/>
-        <v>0.92829366931093482</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="E15" s="12">
+        <f>SUM(C15/D15)</f>
+        <v>0.23207341732773371</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="14" t="s">
         <v>154</v>
       </c>
       <c r="B16">
         <v>5937</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16">
+        <f>SUM(B16/4)</f>
+        <v>1484.25</v>
+      </c>
+      <c r="D16" s="11">
         <v>6347</v>
       </c>
-      <c r="D16" s="12">
-        <f t="shared" si="0"/>
-        <v>0.93540255238695447</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="E16" s="12">
+        <f>SUM(C16/D16)</f>
+        <v>0.23385063809673862</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="15" t="s">
         <v>155</v>
       </c>
       <c r="B17">
         <v>5860</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17">
+        <f>SUM(B17/4)</f>
+        <v>1465</v>
+      </c>
+      <c r="D17" s="11">
         <v>6249</v>
       </c>
-      <c r="D17" s="12">
-        <f t="shared" si="0"/>
-        <v>0.93775004000640105</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="E17" s="12">
+        <f>SUM(C17/D17)</f>
+        <v>0.23443751000160026</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="14" t="s">
         <v>156</v>
       </c>
       <c r="B18">
         <v>5344</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18">
+        <f>SUM(B18/4)</f>
+        <v>1336</v>
+      </c>
+      <c r="D18" s="11">
         <v>5973</v>
       </c>
-      <c r="D18" s="12">
-        <f t="shared" si="0"/>
-        <v>0.89469278419554665</v>
-      </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="E18" s="12">
+        <f>SUM(C18/D18)</f>
+        <v>0.22367319604888666</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="14" t="s">
         <v>157</v>
       </c>
       <c r="B19">
         <v>4452</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19">
+        <f>SUM(B19/4)</f>
+        <v>1113</v>
+      </c>
+      <c r="D19" s="11">
         <v>1244</v>
       </c>
-      <c r="D19" s="12">
-        <f t="shared" si="0"/>
-        <v>3.5787781350482315</v>
-      </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="E19" s="12">
+        <f>SUM(C19/D19)</f>
+        <v>0.89469453376205788</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="15" t="s">
         <v>158</v>
       </c>
       <c r="B20">
         <v>3125</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20">
+        <f>SUM(B20/4)</f>
+        <v>781.25</v>
+      </c>
+      <c r="D20" s="11">
         <v>3433</v>
       </c>
-      <c r="D20" s="12">
-        <f t="shared" si="0"/>
-        <v>0.91028255170404893</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="E20" s="12">
+        <f>SUM(C20/D20)</f>
+        <v>0.22757063792601223</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="14" t="s">
         <v>159</v>
       </c>
       <c r="B21">
         <v>3094</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21">
+        <f>SUM(B21/4)</f>
+        <v>773.5</v>
+      </c>
+      <c r="D21" s="11">
         <v>5483</v>
       </c>
-      <c r="D21" s="12">
-        <f t="shared" si="0"/>
-        <v>0.56428962246945102</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="E21" s="12">
+        <f>SUM(C21/D21)</f>
+        <v>0.14107240561736276</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="14" t="s">
         <v>160</v>
       </c>
       <c r="B22">
         <v>2360</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22">
+        <f>SUM(B22/4)</f>
+        <v>590</v>
+      </c>
+      <c r="D22" s="11">
         <v>2650</v>
       </c>
-      <c r="D22" s="12">
-        <f t="shared" si="0"/>
-        <v>0.89056603773584908</v>
-      </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="E22" s="12">
+        <f>SUM(C22/D22)</f>
+        <v>0.22264150943396227</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="14" t="s">
         <v>161</v>
       </c>
       <c r="B23">
         <v>1217</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23">
+        <f>SUM(B23/4)</f>
+        <v>304.25</v>
+      </c>
+      <c r="D23" s="11">
         <v>3960</v>
       </c>
-      <c r="D23" s="12">
-        <f t="shared" si="0"/>
-        <v>0.30732323232323233</v>
-      </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="E23" s="12">
+        <f>SUM(C23/D23)</f>
+        <v>7.6830808080808083E-2</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="15" t="s">
         <v>162</v>
       </c>
       <c r="B24">
         <v>32</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24">
+        <f>SUM(B24/4)</f>
+        <v>8</v>
+      </c>
+      <c r="D24" s="11">
         <v>35</v>
       </c>
-      <c r="D24" s="12">
-        <f t="shared" si="0"/>
-        <v>0.91428571428571426</v>
-      </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="E24" s="12">
+        <f>SUM(C24/D24)</f>
+        <v>0.22857142857142856</v>
+      </c>
+      <c r="G24" s="5"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="15" t="s">
         <v>163</v>
       </c>
       <c r="B25">
         <v>31</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25">
+        <f>SUM(B25/4)</f>
+        <v>7.75</v>
+      </c>
+      <c r="D25" s="11">
         <v>22</v>
       </c>
-      <c r="D25" s="12">
-        <f t="shared" si="0"/>
-        <v>1.4090909090909092</v>
-      </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="E25" s="12">
+        <f>SUM(C25/D25)</f>
+        <v>0.35227272727272729</v>
+      </c>
+      <c r="G25" s="5"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="14" t="s">
         <v>164</v>
       </c>
       <c r="B26">
         <v>31</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26">
+        <f>SUM(B26/4)</f>
+        <v>7.75</v>
+      </c>
+      <c r="D26" s="11">
         <v>27</v>
       </c>
-      <c r="D26" s="12">
-        <f t="shared" si="0"/>
-        <v>1.1481481481481481</v>
-      </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="E26" s="12">
+        <f>SUM(C26/D26)</f>
+        <v>0.28703703703703703</v>
+      </c>
+      <c r="G26" s="5"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="14" t="s">
         <v>165</v>
       </c>
       <c r="B27">
         <v>31</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27">
+        <f>SUM(B27/4)</f>
+        <v>7.75</v>
+      </c>
+      <c r="D27" s="11">
         <v>72</v>
       </c>
-      <c r="D27" s="12">
-        <f t="shared" si="0"/>
-        <v>0.43055555555555558</v>
-      </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="E27" s="12">
+        <f>SUM(C27/D27)</f>
+        <v>0.1076388888888889</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="14" t="s">
         <v>166</v>
       </c>
       <c r="B28">
         <v>16</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28">
+        <f>SUM(B28/4)</f>
+        <v>4</v>
+      </c>
+      <c r="D28" s="11">
         <v>13</v>
       </c>
-      <c r="D28" s="12">
-        <f t="shared" si="0"/>
-        <v>1.2307692307692308</v>
-      </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="5"/>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="E28" s="12">
+        <f>SUM(C28/D28)</f>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="14" t="s">
         <v>167</v>
       </c>
       <c r="B29">
         <v>16</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29">
+        <f>SUM(B29/4)</f>
+        <v>4</v>
+      </c>
+      <c r="D29" s="11">
         <v>13</v>
       </c>
-      <c r="D29" s="12">
-        <f t="shared" si="0"/>
-        <v>1.2307692307692308</v>
-      </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="5"/>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="E29" s="12">
+        <f>SUM(C29/D29)</f>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="G29" s="5"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="15" t="s">
         <v>168</v>
       </c>
       <c r="B30">
         <v>16</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30">
+        <f>SUM(B30/4)</f>
+        <v>4</v>
+      </c>
+      <c r="D30" s="11">
         <v>184</v>
       </c>
-      <c r="D30" s="12">
-        <f t="shared" si="0"/>
-        <v>8.6956521739130432E-2</v>
-      </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="5"/>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="E30" s="12">
+        <f>SUM(C30/D30)</f>
+        <v>2.1739130434782608E-2</v>
+      </c>
+      <c r="G30" s="5"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="15" t="s">
         <v>169</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31">
+        <f>SUM(B31/4)</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="11">
         <v>14</v>
       </c>
-      <c r="D31" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="5"/>
-    </row>
-    <row r="32" spans="1:8" ht="15" thickBot="1">
+      <c r="E31" s="12">
+        <f>SUM(C31/D31)</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="5"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="1:9" ht="15" thickBot="1">
       <c r="A32" s="16" t="s">
         <v>170</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32">
+        <f>SUM(B32/4)</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="11">
         <v>34</v>
       </c>
-      <c r="D32" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="5"/>
+      <c r="E32" s="12">
+        <f>SUM(C32/D32)</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="5"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="5"/>
     </row>
     <row r="33" ht="15" thickTop="1"/>
   </sheetData>
+  <sortState ref="A3:E32">
+    <sortCondition descending="1" ref="C3:C32"/>
+  </sortState>
   <mergeCells count="3">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>